--- a/output/Clustering/fish and scats/clust_PCs_validity_measures_both_clean_coda_rob_k2_ward.xlsx
+++ b/output/Clustering/fish and scats/clust_PCs_validity_measures_both_clean_coda_rob_k2_ward.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>2.235</v>
+        <v>1.193</v>
       </c>
       <c r="E2" t="n">
-        <v>1.325</v>
+        <v>3.353</v>
       </c>
       <c r="F2" t="n">
-        <v>1.236</v>
+        <v>3.684</v>
       </c>
       <c r="G2" t="n">
-        <v>0.777</v>
+        <v>0.417</v>
       </c>
       <c r="H2" t="n">
-        <v>5.962</v>
+        <v>6.378</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>2.235</v>
+        <v>1.193</v>
       </c>
       <c r="E3" t="n">
-        <v>4.062</v>
+        <v>2.21</v>
       </c>
       <c r="F3" t="n">
-        <v>3.966</v>
+        <v>2.167</v>
       </c>
       <c r="G3" t="n">
-        <v>0.266</v>
+        <v>0.643</v>
       </c>
       <c r="H3" t="n">
-        <v>5.962</v>
+        <v>6.378</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
